--- a/CITRUS-SAKURAピン対比表.xlsx
+++ b/CITRUS-SAKURAピン対比表.xlsx
@@ -1093,6 +1093,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1104,9 +1107,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1435,7 +1435,7 @@
   <dimension ref="D1:R66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1510,10 +1510,10 @@
       <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1668,7 +1668,7 @@
       <c r="G8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="18">
         <v>19</v>
       </c>
       <c r="I8" s="3">
@@ -1705,7 +1705,7 @@
       <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="3">
         <v>20</v>
       </c>
@@ -1744,7 +1744,7 @@
       <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="18">
         <v>2</v>
       </c>
       <c r="I10" s="3">
@@ -1780,7 +1780,7 @@
       <c r="G11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="3">
         <v>2</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="18">
         <v>3</v>
       </c>
       <c r="I12" s="3">
@@ -1857,7 +1857,7 @@
       <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="3">
         <v>3</v>
       </c>
@@ -1926,7 +1926,7 @@
       <c r="G15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="18">
         <v>5</v>
       </c>
       <c r="I15" s="3">
@@ -1967,7 +1967,7 @@
       <c r="G16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="3">
         <v>24</v>
       </c>
@@ -1999,7 +1999,7 @@
       <c r="G17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="17"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="3">
         <v>5</v>
       </c>
@@ -2040,7 +2040,7 @@
       <c r="G18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="18">
         <v>6</v>
       </c>
       <c r="I18" s="3">
@@ -2081,7 +2081,7 @@
       <c r="G19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="17"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="3">
         <v>25</v>
       </c>
@@ -2206,7 +2206,7 @@
       <c r="G22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="18">
         <v>9</v>
       </c>
       <c r="I22" s="3">
@@ -2247,7 +2247,7 @@
       <c r="G23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="17"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="3">
         <v>26</v>
       </c>
@@ -2449,7 +2449,7 @@
       <c r="G28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="18">
         <v>14</v>
       </c>
       <c r="I28" s="3">
@@ -2490,7 +2490,7 @@
       <c r="G29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="17"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="3">
         <v>27</v>
       </c>
@@ -2522,7 +2522,7 @@
       <c r="G30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="19">
         <v>15</v>
       </c>
       <c r="I30" s="4">
@@ -2559,7 +2559,7 @@
       <c r="G31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="18"/>
+      <c r="H31" s="19"/>
       <c r="I31" s="4">
         <v>28</v>
       </c>
@@ -2589,7 +2589,7 @@
       <c r="G32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="18">
         <v>16</v>
       </c>
       <c r="I32" s="3">
@@ -2626,7 +2626,7 @@
       <c r="G33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="17"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="3">
         <v>29</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="G34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="18">
         <v>17</v>
       </c>
       <c r="I34" s="3">
@@ -2693,7 +2693,7 @@
       <c r="G35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="17"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="3">
         <v>30</v>
       </c>
@@ -3170,13 +3170,13 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>260</v>
       </c>
     </row>
